--- a/data/trans_dic/P12_3_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1834421215964234</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2457356082505909</v>
+        <v>0.245735608250591</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1132565009770349</v>
@@ -697,7 +697,7 @@
         <v>0.1582427218830602</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2285446091068056</v>
+        <v>0.2285446091068057</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06190085642370655</v>
+        <v>0.06388095962344054</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1012634433996573</v>
+        <v>0.1026351696238417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1104291821038233</v>
+        <v>0.1095071595827111</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1689470161737541</v>
+        <v>0.1733356032774808</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1124519367621996</v>
+        <v>0.1102044422354933</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1698502548247729</v>
+        <v>0.1693158706633635</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1627916220820996</v>
+        <v>0.1617847257664048</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2157912638960048</v>
+        <v>0.2165020053723526</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09725429495765457</v>
+        <v>0.09830828950927091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1433114073958035</v>
+        <v>0.1427774052800056</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1448521709561685</v>
+        <v>0.1427262974097839</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.203968994107962</v>
+        <v>0.2067255746513172</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1068681335547976</v>
+        <v>0.1073660397114404</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1431867445307284</v>
+        <v>0.1428603424537458</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1507444225522062</v>
+        <v>0.1499297665130576</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2429083860809889</v>
+        <v>0.2493994436471151</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.15473423977498</v>
+        <v>0.1550217093489264</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2192801837370654</v>
+        <v>0.2180090376152801</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2076898761135488</v>
+        <v>0.2052305576430845</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2773946054736681</v>
+        <v>0.2805071316823237</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1300531802016726</v>
+        <v>0.1315663329986863</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1749698219475167</v>
+        <v>0.1770807144801438</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1756285615599533</v>
+        <v>0.1739423152408128</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2513888680128156</v>
+        <v>0.2574864279166461</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03836744965077718</v>
+        <v>0.0383609143455067</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04923613606266719</v>
+        <v>0.05031323202533323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04647357769390987</v>
+        <v>0.0463043401435062</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08621607408829962</v>
+        <v>0.08747628191086193</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06315486681901589</v>
+        <v>0.06292094332093767</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1098799904841866</v>
+        <v>0.1090214162637861</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07725736145076186</v>
+        <v>0.07669490132162081</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.139564505010233</v>
+        <v>0.1387794452817139</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05454455066607548</v>
+        <v>0.05368044596640281</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08567141850162237</v>
+        <v>0.08570654419780795</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06635482927361083</v>
+        <v>0.0667276867175238</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1193175466762065</v>
+        <v>0.1200400256289098</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06495039149795832</v>
+        <v>0.06390681990466143</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08264173026373013</v>
+        <v>0.08450922146249429</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07802526427326968</v>
+        <v>0.07678511741205689</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.128246988063691</v>
+        <v>0.1272072640937984</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09691184892793156</v>
+        <v>0.09780327328387602</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1514204095345847</v>
+        <v>0.1522446487179528</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1155448695757767</v>
+        <v>0.1158982565856013</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1743686750473653</v>
+        <v>0.1731300836158445</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07511575157659338</v>
+        <v>0.07663285507340234</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1116544553568827</v>
+        <v>0.1127345264099028</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09197876978448033</v>
+        <v>0.09260563839268855</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1460741563251931</v>
+        <v>0.1476407547637344</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.05107019762120657</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08230488876583422</v>
+        <v>0.08230488876583424</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02836141408576456</v>
+        <v>0.02875963769108305</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04433877156223068</v>
+        <v>0.04624044864312226</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02592087908078211</v>
+        <v>0.02584364436845224</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04965337782228448</v>
+        <v>0.0491534174149365</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0313224437354525</v>
+        <v>0.03027036455192922</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05702731718434281</v>
+        <v>0.05919849880475216</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04822976710905007</v>
+        <v>0.04627577922309827</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08744712306325426</v>
+        <v>0.08642677565095123</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03296287977240228</v>
+        <v>0.03255888463191606</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05585794906716664</v>
+        <v>0.05642758193200109</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04113802746913472</v>
+        <v>0.04065616520907475</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07176789827053821</v>
+        <v>0.07166917098629277</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05258490056275242</v>
+        <v>0.05302673775002115</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07613360815262188</v>
+        <v>0.0791610575338038</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05245727955093511</v>
+        <v>0.05296757972866208</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07845747457760371</v>
+        <v>0.07992923256997149</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05726396966612256</v>
+        <v>0.05752532239370801</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09428358621916892</v>
+        <v>0.09547028866589184</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08419028762317603</v>
+        <v>0.08614224624371584</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1195857000265171</v>
+        <v>0.1185295156176595</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04988256012490364</v>
+        <v>0.05056904254677726</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08096009714924507</v>
+        <v>0.07991128302616522</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06323159376122967</v>
+        <v>0.06316901905367608</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09549162031694401</v>
+        <v>0.0937789738863541</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01480978629758621</v>
+        <v>0.01717444730143073</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03949585301632302</v>
+        <v>0.0390886800194413</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01960487588203896</v>
+        <v>0.02002746990540576</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08147347078110553</v>
+        <v>0.08236240678244783</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05530912884612415</v>
+        <v>0.06065084048189302</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07481816932269596</v>
+        <v>0.07088929150341246</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05091590463439642</v>
+        <v>0.05212231239683445</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1040867786921373</v>
+        <v>0.1049994745798371</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03972018713088498</v>
+        <v>0.03974893081989891</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06107581497272883</v>
+        <v>0.06234169534449827</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03985943217920815</v>
+        <v>0.04083089369104678</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09776720466587234</v>
+        <v>0.09748771548986661</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04943161756043858</v>
+        <v>0.05057233924031118</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08560784583905552</v>
+        <v>0.08403491760735274</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05522885204449943</v>
+        <v>0.05367019611892045</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1250361931064692</v>
+        <v>0.1258524524179979</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1182461483817299</v>
+        <v>0.1235868555530099</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1330434887817772</v>
+        <v>0.1332474456130733</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1015182753974327</v>
+        <v>0.1060992117991572</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1405800231914343</v>
+        <v>0.1430601335439767</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07215330718245597</v>
+        <v>0.07341597622443755</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0987378419337244</v>
+        <v>0.09882218834119054</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07197404342065863</v>
+        <v>0.07143141026155884</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1262971553756739</v>
+        <v>0.129129696655015</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.07408204639789974</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1060031179202007</v>
+        <v>0.1060031179202006</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0834701052366056</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04172113973082923</v>
+        <v>0.04192921084622924</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0716007491748948</v>
+        <v>0.07152175553715601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06577432728224246</v>
+        <v>0.06548902918920227</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0955750993097112</v>
+        <v>0.09508635780685515</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07435978220046503</v>
+        <v>0.07475477340840384</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1205770671229313</v>
+        <v>0.1211942231703732</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1057333190348988</v>
+        <v>0.106890186216343</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1377112723318107</v>
+        <v>0.136564641939362</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06062412341757737</v>
+        <v>0.06054812662880803</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09956732436419855</v>
+        <v>0.1001854044335263</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08889388963182288</v>
+        <v>0.08870693434553523</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.119848747638571</v>
+        <v>0.1195456961975401</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0579563195063318</v>
+        <v>0.05686919478487191</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09074135776879624</v>
+        <v>0.09139223808097921</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08451587612545282</v>
+        <v>0.08338717865379663</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1167242172504843</v>
+        <v>0.1171306343967165</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0936491926675864</v>
+        <v>0.09383673211552258</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1442678269908949</v>
+        <v>0.1444753866175726</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1288333989424003</v>
+        <v>0.1286035275049199</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1576788408048591</v>
+        <v>0.156343042244028</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07311511804054008</v>
+        <v>0.07303567317642948</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1147330913836554</v>
+        <v>0.1148093880781906</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1037234939470751</v>
+        <v>0.103753597251695</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.134207685913652</v>
+        <v>0.1346127732446693</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>36159</v>
+        <v>37315</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>105570</v>
+        <v>107000</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>124324</v>
+        <v>123286</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>84260</v>
+        <v>86449</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>103718</v>
+        <v>101645</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>189709</v>
+        <v>189112</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>204401</v>
+        <v>203136</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>134287</v>
+        <v>134729</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>146511</v>
+        <v>148099</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>309474</v>
+        <v>308320</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>344954</v>
+        <v>339892</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>228657</v>
+        <v>231747</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>62426</v>
+        <v>62717</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>149276</v>
+        <v>148936</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>169712</v>
+        <v>168795</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>121148</v>
+        <v>124385</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>142716</v>
+        <v>142982</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>244919</v>
+        <v>243499</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>260775</v>
+        <v>257687</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>172622</v>
+        <v>174559</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>195922</v>
+        <v>198201</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>377838</v>
+        <v>382397</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>418246</v>
+        <v>414230</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>281817</v>
+        <v>288652</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>41356</v>
+        <v>41349</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>48107</v>
+        <v>49160</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>42190</v>
+        <v>42037</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>82578</v>
+        <v>83785</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>66789</v>
+        <v>66541</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>120237</v>
+        <v>119298</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>77518</v>
+        <v>76954</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>155655</v>
+        <v>154780</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>116476</v>
+        <v>114631</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>177454</v>
+        <v>177527</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>126818</v>
+        <v>127531</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>247357</v>
+        <v>248855</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>70010</v>
+        <v>68885</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>80747</v>
+        <v>82572</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>70834</v>
+        <v>69708</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>122836</v>
+        <v>121840</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>102488</v>
+        <v>103431</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>165694</v>
+        <v>166596</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>115935</v>
+        <v>116290</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>194472</v>
+        <v>193091</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>160405</v>
+        <v>163644</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>231274</v>
+        <v>233511</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>175791</v>
+        <v>176989</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>302826</v>
+        <v>306074</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>31810</v>
+        <v>32257</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39103</v>
+        <v>40780</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21324</v>
+        <v>21261</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>51961</v>
+        <v>51438</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>31133</v>
+        <v>30087</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>49831</v>
+        <v>51728</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>37188</v>
+        <v>35681</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>91577</v>
+        <v>90508</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>69734</v>
+        <v>68879</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>98071</v>
+        <v>99071</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>65563</v>
+        <v>64795</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>150261</v>
+        <v>150054</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>58979</v>
+        <v>59474</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>67143</v>
+        <v>69813</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43155</v>
+        <v>43575</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>82104</v>
+        <v>83644</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>56917</v>
+        <v>57177</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>82385</v>
+        <v>83422</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>64916</v>
+        <v>66421</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>125233</v>
+        <v>124127</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>105528</v>
+        <v>106981</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>142143</v>
+        <v>140302</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>100774</v>
+        <v>100674</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>199931</v>
+        <v>196346</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6623</v>
+        <v>7680</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>19829</v>
+        <v>19625</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9914</v>
+        <v>10127</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>79390</v>
+        <v>80256</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>18869</v>
+        <v>20692</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>33795</v>
+        <v>32021</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>24933</v>
+        <v>25524</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>94529</v>
+        <v>95358</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>31314</v>
+        <v>31336</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>58251</v>
+        <v>59459</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>39675</v>
+        <v>40642</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>184057</v>
+        <v>183531</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22106</v>
+        <v>22616</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>42980</v>
+        <v>42190</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27928</v>
+        <v>27140</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>121839</v>
+        <v>122634</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>40341</v>
+        <v>42163</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>60096</v>
+        <v>60188</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>49713</v>
+        <v>51957</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>127671</v>
+        <v>129924</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>56883</v>
+        <v>57878</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>94172</v>
+        <v>94252</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>71641</v>
+        <v>71101</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>237767</v>
+        <v>243100</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>134794</v>
+        <v>135466</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>243698</v>
+        <v>243429</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>221134</v>
+        <v>220175</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>332358</v>
+        <v>330658</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>246500</v>
+        <v>247810</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>426443</v>
+        <v>428626</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>372153</v>
+        <v>376225</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>508567</v>
+        <v>504332</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>396833</v>
+        <v>396336</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>691023</v>
+        <v>695313</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>611745</v>
+        <v>610458</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>859369</v>
+        <v>857196</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>187247</v>
+        <v>183735</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>308845</v>
+        <v>311060</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>284143</v>
+        <v>280349</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>405903</v>
+        <v>407316</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>310444</v>
+        <v>311066</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>510230</v>
+        <v>510964</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>453459</v>
+        <v>452650</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>582307</v>
+        <v>577374</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>478597</v>
+        <v>478077</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>796277</v>
+        <v>796807</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>713798</v>
+        <v>714005</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>962329</v>
+        <v>965233</v>
       </c>
     </row>
     <row r="24">
